--- a/metrics/transfer_time/cleaned_data/Kafka_01._var.xlsx
+++ b/metrics/transfer_time/cleaned_data/Kafka_01._var.xlsx
@@ -2451,7 +2451,9 @@
       <c r="A144" s="2" t="n">
         <v>45186.76597222222</v>
       </c>
-      <c r="B144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>8061228</v>
+      </c>
       <c r="C144" t="n">
         <v>3.79</v>
       </c>
